--- a/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2022.xlsx
+++ b/testes_planilhas/RELATÓRIO DE DESFAZIMENTO DE BENS MÓVEIS PATRIMONIAIS DE 2022.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,26 +515,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>100108</v>
+        <v>100101</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Notebook Dell Vostro 15, Intel i7, 16GB RAM, 512GB SSD</t>
+          <t>Monitor LED 23.8" Dell P2419H</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>28/02/2023</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>NF-e 52001</t>
+          <t>NF-e 45678</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Coordenação do Curso de Engenharia Civil</t>
+          <t>Centro de Ciências Exatas e Tecnológicas (CCET)</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -553,26 +553,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>100109</v>
+        <v>100102</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Armário de aço com 2 portas e 4 prateleiras</t>
+          <t>Cadeira de escritório giratória, preta, com braços</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>18/06/2018</t>
+          <t>20/11/2021</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>NF-e 10123</t>
+          <t>NF-e 33210</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Diretoria de Sistemas de Informação (DSI)</t>
+          <t>Pró-Reitoria de Planejamento (PROPLAN)</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -591,26 +591,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>100115</v>
+        <v>100103</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Fragmentadora de papel, 10 folhas, Secreta</t>
+          <t>Mesa de escritório 1.20m x 0.60m, cor carvalho</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>25/07/2021</t>
+          <t>20/11/2021</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>NF-e 31456</t>
+          <t>NF-e 33210</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Pró-Reitoria de Administração (PROAD)</t>
+          <t>Diretoria de Comunicação (DECOM)</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -629,26 +629,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>100116</v>
+        <v>100104</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Nobreak SMS Manager III 1400VA</t>
+          <t>Projetor Multimídia Epson PowerLite S41+</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>10/01/2023</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>NF-e 50123</t>
+          <t>NF-e 51234</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Pró-Reitoria de Desenvolvimento e Gestão de Pessoas (PRODGEP)</t>
+          <t>Centro de Educação, Letras e Artes (CELA)</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -667,26 +667,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>100117</v>
+        <v>100105</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Estante de aço para livros, 6 prateleiras</t>
+          <t>Ar-condicionado Split 12.000 BTUs, Springer Midea</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>02/10/2018</t>
+          <t>05/09/2020</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>NF-e 12345</t>
+          <t>NF-e 20556</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Diretoria de Apoio ao Desenvolvimento do Ensino (DIADE)</t>
+          <t>Coordenação do Curso de Sistemas de Informação</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -695,44 +695,6 @@
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Alienação/Leilão</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>100118</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Balança de precisão digital para laboratório, 0.01g</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>19/07/2020</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>NF-e 19876</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação do Curso de Física</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Irrecuperável</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>Alienação/Leilão</t>
         </is>
@@ -767,7 +729,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
